--- a/资料/合同系统试用信息反馈-2015-9-11.xlsx
+++ b/资料/合同系统试用信息反馈-2015-9-11.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sdgas\contract\资料\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="450" windowWidth="22965" windowHeight="9360"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="108">
   <si>
     <t>序号</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -398,10 +403,6 @@
   </si>
   <si>
     <t>未完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>招标部---2015/9/11</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -471,6 +472,10 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>招标部---2015/9/11</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -480,7 +485,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -617,7 +622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -865,6 +870,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1034,15 +1076,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1064,13 +1097,37 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,29 +1142,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1121,6 +1163,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1457,11 +1502,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
@@ -1471,72 +1516,72 @@
     <col min="7" max="7" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" customHeight="1" thickBot="1">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="59"/>
+    </row>
+    <row r="4" spans="1:7" s="57" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="52">
+        <v>1</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="62" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="63"/>
-    </row>
-    <row r="4" spans="1:7" s="60" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="55">
-        <v>1</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="56" t="s">
+      <c r="G4" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="59" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="54.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1550,12 +1595,12 @@
         <v>5</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" ht="46.5" customHeight="1">
+    <row r="6" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -1569,12 +1614,12 @@
         <v>7</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" ht="34.5" customHeight="1">
+    <row r="7" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -1588,12 +1633,12 @@
         <v>10</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="27" customHeight="1">
+    <row r="8" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -1607,12 +1652,12 @@
         <v>12</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="45"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" ht="34.5" customHeight="1">
+    <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -1623,15 +1668,15 @@
         <v>25</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="44"/>
-      <c r="F9" s="56" t="s">
-        <v>98</v>
+      <c r="F9" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" ht="21.75" customHeight="1">
+    <row r="10" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -1645,12 +1690,12 @@
         <v>15</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="45"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" ht="56.25" customHeight="1">
+    <row r="11" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -1664,12 +1709,12 @@
         <v>21</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" ht="26.25" customHeight="1">
+    <row r="12" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -1683,12 +1728,12 @@
         <v>18</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="45"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" ht="34.5" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -1702,12 +1747,12 @@
         <v>30</v>
       </c>
       <c r="E13" s="48"/>
-      <c r="F13" s="56" t="s">
-        <v>98</v>
+      <c r="F13" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="G13" s="40"/>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="23" t="s">
@@ -1716,55 +1761,55 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15" s="23"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="D16" s="13"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="70" t="s">
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="62" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="54" t="s">
+      <c r="E17" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="61"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="63"/>
-    </row>
-    <row r="19" spans="1:7" ht="34.5" customHeight="1">
+      <c r="G18" s="59"/>
+    </row>
+    <row r="19" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>1</v>
       </c>
@@ -1777,13 +1822,13 @@
       <c r="D19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="56" t="s">
-        <v>98</v>
-      </c>
+      <c r="E19" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="45"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" ht="26.25" customHeight="1">
+    <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>2</v>
       </c>
@@ -1797,12 +1842,12 @@
         <v>32</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F20" s="45"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" ht="26.25" customHeight="1">
+    <row r="21" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19">
         <v>3</v>
       </c>
@@ -1816,12 +1861,12 @@
         <v>37</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21" s="45"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" ht="26.25" customHeight="1">
+    <row r="22" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>4</v>
       </c>
@@ -1834,13 +1879,13 @@
       <c r="D22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="56" t="s">
-        <v>98</v>
-      </c>
+      <c r="E22" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="45"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" ht="48" customHeight="1">
+    <row r="23" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19">
         <v>5</v>
       </c>
@@ -1854,12 +1899,12 @@
         <v>43</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="45"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" ht="27" customHeight="1" thickBot="1">
+    <row r="24" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20">
         <v>6</v>
       </c>
@@ -1873,59 +1918,59 @@
         <v>46</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F24" s="49"/>
       <c r="G24" s="40"/>
     </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1">
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="23" t="s">
         <v>64</v>
       </c>
       <c r="E25" s="50"/>
     </row>
-    <row r="26" spans="1:7" s="22" customFormat="1" ht="8.25" customHeight="1" thickBot="1">
+    <row r="26" spans="1:7" s="22" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="D26" s="23"/>
       <c r="E26" s="50"/>
       <c r="F26" s="43"/>
     </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="70" t="s">
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="69"/>
-      <c r="G27" s="62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="54" t="s">
+      <c r="E27" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="67"/>
+      <c r="G27" s="58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="61"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="54" t="s">
+      <c r="F28" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="63"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.25" customHeight="1">
+      <c r="G28" s="59"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19">
         <v>1</v>
       </c>
@@ -1939,12 +1984,12 @@
         <v>63</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F29" s="45"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" ht="20.25" customHeight="1">
+    <row r="30" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19">
         <v>2</v>
       </c>
@@ -1958,12 +2003,12 @@
         <v>52</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" s="45"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" ht="20.25" customHeight="1">
+    <row r="31" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19">
         <v>3</v>
       </c>
@@ -1977,12 +2022,12 @@
         <v>52</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="45"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7" ht="20.25" customHeight="1">
+    <row r="32" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19">
         <v>4</v>
       </c>
@@ -1996,12 +2041,12 @@
         <v>52</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32" s="45"/>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" ht="20.25" customHeight="1">
+    <row r="33" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19">
         <v>5</v>
       </c>
@@ -2015,12 +2060,12 @@
         <v>57</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F33" s="45"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" ht="20.25" customHeight="1">
+    <row r="34" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="19">
         <v>6</v>
       </c>
@@ -2034,12 +2079,12 @@
         <v>52</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" s="45"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" ht="20.25" customHeight="1">
+    <row r="35" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="19">
         <v>7</v>
       </c>
@@ -2051,12 +2096,12 @@
         <v>71</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F35" s="45"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" ht="20.25" customHeight="1">
+    <row r="36" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="19">
         <v>8</v>
       </c>
@@ -2070,12 +2115,12 @@
         <v>73</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F36" s="45"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" ht="20.25" customHeight="1">
+    <row r="37" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="19">
         <v>9</v>
       </c>
@@ -2087,12 +2132,12 @@
         <v>61</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F37" s="45"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" ht="27">
+    <row r="38" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="19">
         <v>10</v>
       </c>
@@ -2104,12 +2149,12 @@
         <v>67</v>
       </c>
       <c r="E38" s="44"/>
-      <c r="F38" s="56" t="s">
-        <v>98</v>
+      <c r="F38" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" ht="31.5" customHeight="1">
+    <row r="39" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="19">
         <v>11</v>
       </c>
@@ -2121,12 +2166,12 @@
         <v>69</v>
       </c>
       <c r="E39" s="44"/>
-      <c r="F39" s="56" t="s">
-        <v>98</v>
+      <c r="F39" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" ht="21.75" customHeight="1" thickBot="1">
+    <row r="40" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="20">
         <v>12</v>
       </c>
@@ -2138,53 +2183,53 @@
       </c>
       <c r="D40" s="41"/>
       <c r="E40" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F40" s="49"/>
       <c r="G40" s="40"/>
     </row>
-    <row r="41" spans="1:7" ht="19.5" customHeight="1">
+    <row r="41" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="23" t="s">
         <v>65</v>
       </c>
       <c r="E41" s="50"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="43" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="70" t="s">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="74" t="s">
+      <c r="D43" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="69"/>
-      <c r="G43" s="62" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="71"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="54" t="s">
+      <c r="E43" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="67"/>
+      <c r="G43" s="58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="61"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="54" t="s">
+      <c r="F44" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="63"/>
-    </row>
-    <row r="45" spans="1:7" ht="24" customHeight="1">
+      <c r="G44" s="59"/>
+    </row>
+    <row r="45" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19">
         <v>1</v>
       </c>
@@ -2196,12 +2241,12 @@
         <v>78</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F45" s="45"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" ht="24" customHeight="1">
+    <row r="46" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19">
         <v>2</v>
       </c>
@@ -2209,18 +2254,18 @@
         <v>79</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46" s="45"/>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:7" ht="36" customHeight="1">
+    <row r="47" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19">
         <v>3</v>
       </c>
@@ -2228,18 +2273,18 @@
         <v>90</v>
       </c>
       <c r="C47" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="E47" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F47" s="45"/>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" ht="24" customHeight="1">
+    <row r="48" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19">
         <v>4</v>
       </c>
@@ -2251,12 +2296,12 @@
         <v>93</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" s="45"/>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:8" ht="24" customHeight="1">
+    <row r="49" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19">
         <v>5</v>
       </c>
@@ -2266,15 +2311,17 @@
       <c r="C49" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="65" t="s">
+      <c r="D49" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="51"/>
+      <c r="E49" s="73" t="s">
+        <v>104</v>
+      </c>
       <c r="F49" s="45"/>
       <c r="G49" s="18"/>
-      <c r="H49" s="61"/>
-    </row>
-    <row r="50" spans="1:8" ht="24" customHeight="1">
+      <c r="H49" s="68"/>
+    </row>
+    <row r="50" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19">
         <v>6</v>
       </c>
@@ -2284,13 +2331,13 @@
       <c r="C50" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="52"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="74"/>
       <c r="F50" s="45"/>
       <c r="G50" s="18"/>
-      <c r="H50" s="61"/>
-    </row>
-    <row r="51" spans="1:8" ht="24" customHeight="1">
+      <c r="H50" s="68"/>
+    </row>
+    <row r="51" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19">
         <v>7</v>
       </c>
@@ -2300,13 +2347,13 @@
       <c r="C51" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="52"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="74"/>
       <c r="F51" s="45"/>
       <c r="G51" s="18"/>
-      <c r="H51" s="61"/>
-    </row>
-    <row r="52" spans="1:8" ht="24" customHeight="1">
+      <c r="H51" s="68"/>
+    </row>
+    <row r="52" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="19">
         <v>8</v>
       </c>
@@ -2316,13 +2363,13 @@
       <c r="C52" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="66"/>
-      <c r="E52" s="52"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="74"/>
       <c r="F52" s="45"/>
       <c r="G52" s="18"/>
-      <c r="H52" s="61"/>
-    </row>
-    <row r="53" spans="1:8" ht="24" customHeight="1" thickBot="1">
+      <c r="H52" s="68"/>
+    </row>
+    <row r="53" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20">
         <v>9</v>
       </c>
@@ -2332,240 +2379,230 @@
       <c r="C53" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="53"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="75"/>
       <c r="F53" s="49"/>
       <c r="G53" s="40"/>
-      <c r="H53" s="61"/>
-    </row>
-    <row r="54" spans="1:8" ht="28.5" customHeight="1">
+      <c r="H53" s="68"/>
+    </row>
+    <row r="54" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
     </row>
-    <row r="55" spans="1:8" ht="34.5" customHeight="1">
+    <row r="55" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E55"/>
       <c r="F55"/>
     </row>
-    <row r="56" spans="1:8" ht="34.5" customHeight="1">
+    <row r="56" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56"/>
       <c r="F56"/>
     </row>
-    <row r="57" spans="1:8" ht="34.5" customHeight="1">
+    <row r="57" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57"/>
       <c r="F57"/>
     </row>
-    <row r="58" spans="1:8" ht="34.5" customHeight="1">
+    <row r="58" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58"/>
       <c r="F58"/>
     </row>
-    <row r="59" spans="1:8" ht="34.5" customHeight="1">
+    <row r="59" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59"/>
       <c r="F59"/>
     </row>
-    <row r="60" spans="1:8" ht="34.5" customHeight="1">
+    <row r="60" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60"/>
       <c r="F60"/>
     </row>
-    <row r="61" spans="1:8" ht="34.5" customHeight="1">
+    <row r="61" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61"/>
       <c r="F61"/>
     </row>
-    <row r="62" spans="1:8" ht="34.5" customHeight="1">
+    <row r="62" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62"/>
       <c r="F62"/>
     </row>
-    <row r="63" spans="1:8" ht="34.5" customHeight="1">
+    <row r="63" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63"/>
       <c r="F63"/>
     </row>
-    <row r="64" spans="1:8" ht="34.5" customHeight="1">
+    <row r="64" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64"/>
       <c r="F64"/>
     </row>
-    <row r="65" spans="5:6" ht="34.5" customHeight="1">
+    <row r="65" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65"/>
       <c r="F65"/>
     </row>
-    <row r="66" spans="5:6" ht="34.5" customHeight="1">
+    <row r="66" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66"/>
       <c r="F66"/>
     </row>
-    <row r="67" spans="5:6" ht="34.5" customHeight="1">
+    <row r="67" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67"/>
       <c r="F67"/>
     </row>
-    <row r="68" spans="5:6" ht="34.5" customHeight="1">
+    <row r="68" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E68"/>
       <c r="F68"/>
     </row>
-    <row r="69" spans="5:6" ht="34.5" customHeight="1">
+    <row r="69" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69"/>
       <c r="F69"/>
     </row>
-    <row r="70" spans="5:6" ht="34.5" customHeight="1">
+    <row r="70" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E70"/>
       <c r="F70"/>
     </row>
-    <row r="71" spans="5:6" ht="34.5" customHeight="1">
+    <row r="71" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71"/>
       <c r="F71"/>
     </row>
-    <row r="72" spans="5:6" ht="34.5" customHeight="1">
+    <row r="72" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72"/>
       <c r="F72"/>
     </row>
-    <row r="73" spans="5:6" ht="34.5" customHeight="1">
+    <row r="73" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73"/>
       <c r="F73"/>
     </row>
-    <row r="74" spans="5:6" ht="34.5" customHeight="1">
+    <row r="74" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74"/>
       <c r="F74"/>
     </row>
-    <row r="75" spans="5:6" ht="34.5" customHeight="1">
+    <row r="75" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E75"/>
       <c r="F75"/>
     </row>
-    <row r="76" spans="5:6" ht="34.5" customHeight="1">
+    <row r="76" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76"/>
       <c r="F76"/>
     </row>
-    <row r="77" spans="5:6" ht="34.5" customHeight="1">
+    <row r="77" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="5:6" ht="34.5" customHeight="1">
+    <row r="78" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E78"/>
       <c r="F78"/>
     </row>
-    <row r="79" spans="5:6" ht="34.5" customHeight="1">
+    <row r="79" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79"/>
       <c r="F79"/>
     </row>
-    <row r="80" spans="5:6" ht="34.5" customHeight="1">
+    <row r="80" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80"/>
       <c r="F80"/>
     </row>
-    <row r="81" spans="5:6" ht="34.5" customHeight="1">
+    <row r="81" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="5:6" ht="34.5" customHeight="1">
+    <row r="82" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82"/>
       <c r="F82"/>
     </row>
-    <row r="83" spans="5:6" ht="34.5" customHeight="1">
+    <row r="83" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E83"/>
       <c r="F83"/>
     </row>
-    <row r="84" spans="5:6" ht="34.5" customHeight="1">
+    <row r="84" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E84"/>
       <c r="F84"/>
     </row>
-    <row r="85" spans="5:6" ht="34.5" customHeight="1">
+    <row r="85" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="5:6" ht="34.5" customHeight="1">
+    <row r="86" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E86"/>
       <c r="F86"/>
     </row>
-    <row r="87" spans="5:6" ht="34.5" customHeight="1">
+    <row r="87" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E87"/>
       <c r="F87"/>
     </row>
-    <row r="88" spans="5:6" ht="34.5" customHeight="1">
+    <row r="88" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E88"/>
       <c r="F88"/>
     </row>
-    <row r="89" spans="5:6" ht="34.5" customHeight="1">
+    <row r="89" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E89"/>
       <c r="F89"/>
     </row>
-    <row r="90" spans="5:6" ht="34.5" customHeight="1">
+    <row r="90" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E90"/>
       <c r="F90"/>
     </row>
-    <row r="91" spans="5:6" ht="34.5" customHeight="1">
+    <row r="91" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E91"/>
       <c r="F91"/>
     </row>
-    <row r="92" spans="5:6" ht="34.5" customHeight="1">
+    <row r="92" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E92"/>
       <c r="F92"/>
     </row>
-    <row r="93" spans="5:6" ht="34.5" customHeight="1">
+    <row r="93" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E93"/>
       <c r="F93"/>
     </row>
-    <row r="94" spans="5:6" ht="34.5" customHeight="1">
+    <row r="94" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E94"/>
       <c r="F94"/>
     </row>
-    <row r="95" spans="5:6" ht="34.5" customHeight="1">
+    <row r="95" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95"/>
       <c r="F95"/>
     </row>
-    <row r="96" spans="5:6" ht="34.5" customHeight="1">
+    <row r="96" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E96"/>
       <c r="F96"/>
     </row>
-    <row r="97" spans="5:6" ht="34.5" customHeight="1">
+    <row r="97" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E97"/>
       <c r="F97"/>
     </row>
-    <row r="98" spans="5:6" ht="34.5" customHeight="1">
+    <row r="98" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E98"/>
       <c r="F98"/>
     </row>
-    <row r="99" spans="5:6" ht="34.5" customHeight="1">
+    <row r="99" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E99"/>
       <c r="F99"/>
     </row>
-    <row r="100" spans="5:6" ht="34.5" customHeight="1">
+    <row r="100" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E100"/>
       <c r="F100"/>
     </row>
-    <row r="101" spans="5:6" ht="34.5" customHeight="1">
+    <row r="101" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E101"/>
       <c r="F101"/>
     </row>
-    <row r="102" spans="5:6" ht="34.5" customHeight="1">
+    <row r="102" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E102"/>
       <c r="F102"/>
     </row>
-    <row r="103" spans="5:6" ht="34.5" customHeight="1">
+    <row r="103" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E103"/>
       <c r="F103"/>
     </row>
-    <row r="104" spans="5:6" ht="34.5" customHeight="1">
+    <row r="104" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104"/>
       <c r="F104"/>
     </row>
-    <row r="105" spans="5:6" ht="34.5" customHeight="1">
+    <row r="105" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E105"/>
       <c r="F105"/>
     </row>
-    <row r="106" spans="5:6" ht="34.5" customHeight="1">
+    <row r="106" spans="5:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E106"/>
       <c r="F106"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:F27"/>
+  <mergeCells count="28">
+    <mergeCell ref="E49:E53"/>
     <mergeCell ref="H49:H53"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="A1:D1"/>
@@ -2582,6 +2619,17 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
